--- a/out/test/Figori_algorithm_10.xlsx
+++ b/out/test/Figori_algorithm_10.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.90195000000000003</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="B1">
-        <v>0.84089999999999998</v>
+        <v>0.98745000000000005</v>
       </c>
       <c r="C1">
-        <v>0.98745000000000005</v>
+        <v>0.95489999999999997</v>
       </c>
       <c r="D1">
-        <v>0.89559999999999995</v>
+        <v>0.82850000000000001</v>
       </c>
       <c r="E1">
-        <v>0.84804999999999997</v>
+        <v>0.84065000000000001</v>
       </c>
       <c r="F1">
-        <v>0.89180000000000004</v>
+        <v>0.83794999999999997</v>
       </c>
       <c r="G1">
-        <v>0.95725000000000005</v>
+        <v>0.95574999999999999</v>
       </c>
       <c r="H1">
-        <v>0.83045000000000002</v>
+        <v>0.98675000000000002</v>
       </c>
       <c r="I1">
-        <v>0.95409999999999995</v>
+        <v>0.89615</v>
       </c>
       <c r="J1">
-        <v>0.84065000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="K1">
-        <v>0.98770000000000002</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="L1">
-        <v>0.90280000000000005</v>
+        <v>0.89959999999999996</v>
       </c>
       <c r="M1">
-        <v>0.9</v>
+        <v>0.95735000000000003</v>
       </c>
       <c r="N1">
-        <v>0.96084999999999998</v>
+        <v>0.95665</v>
       </c>
       <c r="O1">
-        <v>0.83025000000000004</v>
+        <v>0.90010000000000001</v>
       </c>
       <c r="P1">
-        <v>0.83819999999999995</v>
+        <v>0.83884999999999998</v>
       </c>
       <c r="Q1">
-        <v>0.82415000000000005</v>
+        <v>0.84319999999999995</v>
       </c>
       <c r="R1">
-        <v>0.83994999999999997</v>
+        <v>0.89705000000000001</v>
       </c>
       <c r="S1">
-        <v>0.98829999999999996</v>
+        <v>0.90154999999999996</v>
       </c>
       <c r="T1">
-        <v>0.9577</v>
+        <v>0.95745000000000002</v>
       </c>
       <c r="U1">
-        <v>0.84355000000000002</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="V1">
-        <v>0.83884999999999998</v>
+        <v>0.89544999999999997</v>
       </c>
       <c r="W1">
-        <v>0.95435000000000003</v>
+        <v>0.95765</v>
       </c>
       <c r="X1">
-        <v>0.84899999999999998</v>
+        <v>0.8266</v>
       </c>
       <c r="Y1">
-        <v>0.90380000000000005</v>
+        <v>0.95860000000000001</v>
       </c>
       <c r="Z1">
-        <v>0.98555000000000004</v>
+        <v>0.98424999999999996</v>
       </c>
       <c r="AA1">
-        <v>0.83984999999999999</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="AB1">
-        <v>0.83194999999999997</v>
+        <v>0.8427</v>
       </c>
       <c r="AC1">
-        <v>0.90549999999999997</v>
+        <v>0.95569999999999999</v>
       </c>
       <c r="AD1">
-        <v>0.90085000000000004</v>
+        <v>0.89634999999999998</v>
       </c>
       <c r="AE1">
-        <v>0.90144999999999997</v>
+        <v>0.84640000000000004</v>
       </c>
       <c r="AF1">
-        <v>0.98814999999999997</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="AG1">
-        <v>0.90129999999999999</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="AH1">
-        <v>0.89995000000000003</v>
+        <v>0.90264999999999995</v>
       </c>
       <c r="AI1">
-        <v>0.84379999999999999</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="AJ1">
-        <v>0.95484999999999998</v>
+        <v>0.89705000000000001</v>
       </c>
       <c r="AK1">
-        <v>0.89610000000000001</v>
+        <v>0.89385000000000003</v>
       </c>
       <c r="AL1">
-        <v>0.95474999999999999</v>
+        <v>0.89964999999999995</v>
       </c>
       <c r="AM1">
-        <v>0.90315000000000001</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="AN1">
-        <v>0.84489999999999998</v>
+        <v>0.84294999999999998</v>
       </c>
       <c r="AO1">
-        <v>0.83955000000000002</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="AP1">
-        <v>0.89624999999999999</v>
+        <v>0.84004999999999996</v>
       </c>
       <c r="AQ1">
-        <v>0.95709999999999995</v>
+        <v>0.95789999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.89334999999999998</v>
+        <v>0.9022</v>
       </c>
       <c r="AS1">
-        <v>0.98445000000000005</v>
+        <v>0.98504999999999998</v>
       </c>
       <c r="AT1">
-        <v>0.89775000000000005</v>
+        <v>0.90375000000000005</v>
       </c>
       <c r="AU1">
-        <v>0.83440000000000003</v>
+        <v>0.95655000000000001</v>
       </c>
       <c r="AV1">
-        <v>0.98850000000000005</v>
+        <v>0.83875</v>
       </c>
       <c r="AW1">
-        <v>0.95809999999999995</v>
+        <v>0.95394999999999996</v>
       </c>
       <c r="AX1">
-        <v>0.83084999999999998</v>
+        <v>0.83135000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.85209999999999997</v>
+        <v>0.87875000000000003</v>
       </c>
       <c r="B2">
-        <v>0.78144999999999998</v>
+        <v>0.97324999999999995</v>
       </c>
       <c r="C2">
-        <v>0.98580000000000001</v>
+        <v>0.96114999999999995</v>
       </c>
       <c r="D2">
-        <v>0.874</v>
+        <v>0.9163</v>
       </c>
       <c r="E2">
-        <v>0.78005000000000002</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="F2">
-        <v>0.93095000000000006</v>
+        <v>0.73185</v>
       </c>
       <c r="G2">
-        <v>0.94305000000000005</v>
+        <v>0.87755000000000005</v>
       </c>
       <c r="H2">
-        <v>0.74609999999999999</v>
+        <v>0.97724999999999995</v>
       </c>
       <c r="I2">
-        <v>0.93915000000000004</v>
+        <v>0.94984999999999997</v>
       </c>
       <c r="J2">
-        <v>0.79079999999999995</v>
+        <v>0.83684999999999998</v>
       </c>
       <c r="K2">
-        <v>0.95840000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="L2">
-        <v>0.89175000000000004</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="M2">
-        <v>0.84619999999999995</v>
+        <v>0.92135</v>
       </c>
       <c r="N2">
-        <v>0.93774999999999997</v>
+        <v>0.93484999999999996</v>
       </c>
       <c r="O2">
-        <v>0.76539999999999997</v>
+        <v>0.82255</v>
       </c>
       <c r="P2">
-        <v>0.90044999999999997</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="Q2">
-        <v>0.91074999999999995</v>
+        <v>0.83684999999999998</v>
       </c>
       <c r="R2">
-        <v>0.86409999999999998</v>
+        <v>0.83784999999999998</v>
       </c>
       <c r="S2">
-        <v>0.98899999999999999</v>
+        <v>0.88334999999999997</v>
       </c>
       <c r="T2">
-        <v>0.96284999999999998</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="U2">
-        <v>0.91285000000000005</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="V2">
-        <v>0.75765000000000005</v>
+        <v>0.89654999999999996</v>
       </c>
       <c r="W2">
-        <v>0.92390000000000005</v>
+        <v>0.92915000000000003</v>
       </c>
       <c r="X2">
-        <v>0.84345000000000003</v>
+        <v>0.77595000000000003</v>
       </c>
       <c r="Y2">
-        <v>0.84814999999999996</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="Z2">
-        <v>0.95874999999999999</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="AA2">
-        <v>0.94384999999999997</v>
+        <v>0.93445</v>
       </c>
       <c r="AB2">
-        <v>0.91379999999999995</v>
+        <v>0.7964</v>
       </c>
       <c r="AC2">
-        <v>0.86990000000000001</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="AD2">
-        <v>0.88260000000000005</v>
+        <v>0.91864999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.88654999999999995</v>
+        <v>0.84135000000000004</v>
       </c>
       <c r="AF2">
-        <v>0.99334999999999996</v>
+        <v>0.96735000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.86434999999999995</v>
+        <v>0.752</v>
       </c>
       <c r="AH2">
-        <v>0.87644999999999995</v>
+        <v>0.86504999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.88154999999999994</v>
+        <v>0.89734999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.97114999999999996</v>
+        <v>0.81684999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.83989999999999998</v>
+        <v>0.94925000000000004</v>
       </c>
       <c r="AL2">
-        <v>0.89200000000000002</v>
+        <v>0.82004999999999995</v>
       </c>
       <c r="AM2">
-        <v>0.8286</v>
+        <v>0.96755000000000002</v>
       </c>
       <c r="AN2">
-        <v>0.75639999999999996</v>
+        <v>0.78995000000000004</v>
       </c>
       <c r="AO2">
-        <v>0.75044999999999995</v>
+        <v>0.96294999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.84309999999999996</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="AQ2">
-        <v>0.91990000000000005</v>
+        <v>0.90444999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.82140000000000002</v>
+        <v>0.87509999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.98229999999999995</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="AT2">
-        <v>0.86134999999999995</v>
+        <v>0.97424999999999995</v>
       </c>
       <c r="AU2">
-        <v>0.88670000000000004</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="AV2">
-        <v>0.97455000000000003</v>
+        <v>0.80630000000000002</v>
       </c>
       <c r="AW2">
-        <v>0.93020000000000003</v>
+        <v>0.96014999999999995</v>
       </c>
       <c r="AX2">
-        <v>0.77534999999999998</v>
+        <v>0.9476</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.87190000000000001</v>
+        <v>0.79179999999999995</v>
       </c>
       <c r="B3">
-        <v>0.88139999999999996</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C3">
-        <v>0.97245000000000004</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="D3">
-        <v>0.94940000000000002</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="E3">
-        <v>0.91895000000000004</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="F3">
-        <v>0.88270000000000004</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="G3">
-        <v>0.80935000000000001</v>
+        <v>0.82894999999999996</v>
       </c>
       <c r="H3">
-        <v>0.8266</v>
+        <v>0.97175</v>
       </c>
       <c r="I3">
-        <v>0.93930000000000002</v>
+        <v>0.80395000000000005</v>
       </c>
       <c r="J3">
-        <v>0.63865000000000005</v>
+        <v>0.88314999999999999</v>
       </c>
       <c r="K3">
-        <v>0.93825000000000003</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="L3">
-        <v>0.90700000000000003</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="M3">
-        <v>0.79569999999999996</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="N3">
-        <v>0.82025000000000003</v>
+        <v>0.87444999999999995</v>
       </c>
       <c r="O3">
-        <v>0.71379999999999999</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="P3">
-        <v>0.78369999999999995</v>
+        <v>0.71825000000000006</v>
       </c>
       <c r="Q3">
-        <v>0.83379999999999999</v>
+        <v>0.81005000000000005</v>
       </c>
       <c r="R3">
-        <v>0.78039999999999998</v>
+        <v>0.93964999999999999</v>
       </c>
       <c r="S3">
-        <v>0.94245000000000001</v>
+        <v>0.88095000000000001</v>
       </c>
       <c r="T3">
-        <v>0.94320000000000004</v>
+        <v>0.86495</v>
       </c>
       <c r="U3">
-        <v>0.85429999999999995</v>
+        <v>0.97004999999999997</v>
       </c>
       <c r="V3">
-        <v>0.77764999999999995</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="W3">
-        <v>0.87875000000000003</v>
+        <v>0.91525000000000001</v>
       </c>
       <c r="X3">
-        <v>0.88349999999999995</v>
+        <v>0.73704999999999998</v>
       </c>
       <c r="Y3">
-        <v>0.93464999999999998</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="Z3">
-        <v>0.92279999999999995</v>
+        <v>0.9526</v>
       </c>
       <c r="AA3">
-        <v>0.87190000000000001</v>
+        <v>0.95245000000000002</v>
       </c>
       <c r="AB3">
-        <v>0.91569999999999996</v>
+        <v>0.84379999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.89495000000000002</v>
+        <v>0.98094999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.90059999999999996</v>
+        <v>0.91385000000000005</v>
       </c>
       <c r="AE3">
-        <v>0.90720000000000001</v>
+        <v>0.68884999999999996</v>
       </c>
       <c r="AF3">
-        <v>0.98499999999999999</v>
+        <v>0.90095000000000003</v>
       </c>
       <c r="AG3">
-        <v>0.89390000000000003</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.77554999999999996</v>
+        <v>0.81059999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.80110000000000003</v>
+        <v>0.77539999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.98155000000000003</v>
+        <v>0.9395</v>
       </c>
       <c r="AK3">
-        <v>0.71445000000000003</v>
+        <v>0.94294999999999995</v>
       </c>
       <c r="AL3">
-        <v>0.76270000000000004</v>
+        <v>0.70320000000000005</v>
       </c>
       <c r="AM3">
-        <v>0.83089999999999997</v>
+        <v>0.97024999999999995</v>
       </c>
       <c r="AN3">
-        <v>0.81335000000000002</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="AO3">
-        <v>0.81645000000000001</v>
+        <v>0.91234999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.66025</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="AQ3">
-        <v>0.83714999999999995</v>
+        <v>0.83789999999999998</v>
       </c>
       <c r="AR3">
-        <v>0.84875</v>
+        <v>0.8306</v>
       </c>
       <c r="AS3">
-        <v>0.94115000000000004</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="AT3">
-        <v>0.90939999999999999</v>
+        <v>0.97494999999999998</v>
       </c>
       <c r="AU3">
-        <v>0.91264999999999996</v>
+        <v>0.88875000000000004</v>
       </c>
       <c r="AV3">
-        <v>0.9516</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="AW3">
-        <v>0.79259999999999997</v>
+        <v>0.90439999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.63175000000000003</v>
+        <v>0.92030000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.90744999999999998</v>
+        <v>0.97745000000000004</v>
       </c>
       <c r="B4">
-        <v>0.81159999999999999</v>
+        <v>0.93020000000000003</v>
       </c>
       <c r="C4">
-        <v>0.94135000000000002</v>
+        <v>0.75390000000000001</v>
       </c>
       <c r="D4">
-        <v>0.96955000000000002</v>
+        <v>0.71040000000000003</v>
       </c>
       <c r="E4">
-        <v>0.80110000000000003</v>
+        <v>0.88144999999999996</v>
       </c>
       <c r="F4">
-        <v>0.8871</v>
+        <v>0.78605000000000003</v>
       </c>
       <c r="G4">
-        <v>0.72189999999999999</v>
+        <v>0.61060000000000003</v>
       </c>
       <c r="H4">
-        <v>0.77095000000000002</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="I4">
-        <v>0.7923</v>
+        <v>0.81074999999999997</v>
       </c>
       <c r="J4">
-        <v>0.50355000000000005</v>
+        <v>0.83165</v>
       </c>
       <c r="K4">
-        <v>0.99195</v>
+        <v>0.86665000000000003</v>
       </c>
       <c r="L4">
-        <v>0.81674999999999998</v>
+        <v>0.86655000000000004</v>
       </c>
       <c r="M4">
-        <v>0.94305000000000005</v>
+        <v>0.89365000000000006</v>
       </c>
       <c r="N4">
-        <v>0.90980000000000005</v>
+        <v>0.83574999999999999</v>
       </c>
       <c r="O4">
-        <v>0.88915</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="P4">
-        <v>0.64600000000000002</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.7399</v>
+        <v>0.82425000000000004</v>
       </c>
       <c r="R4">
-        <v>0.64190000000000003</v>
+        <v>0.88065000000000004</v>
       </c>
       <c r="S4">
-        <v>0.96535000000000004</v>
+        <v>0.71825000000000006</v>
       </c>
       <c r="T4">
-        <v>0.89829999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="U4">
-        <v>0.90659999999999996</v>
+        <v>0.87965000000000004</v>
       </c>
       <c r="V4">
-        <v>0.63544999999999996</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="W4">
-        <v>0.76100000000000001</v>
+        <v>0.82074999999999998</v>
       </c>
       <c r="X4">
-        <v>0.80100000000000005</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="Y4">
-        <v>0.94435000000000002</v>
+        <v>0.83955000000000002</v>
       </c>
       <c r="Z4">
-        <v>0.90890000000000004</v>
+        <v>0.92664999999999997</v>
       </c>
       <c r="AA4">
-        <v>0.89205000000000001</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="AB4">
-        <v>0.79979999999999996</v>
+        <v>0.8206</v>
       </c>
       <c r="AC4">
-        <v>0.77185000000000004</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.82104999999999995</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="AE4">
-        <v>0.94259999999999999</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="AF4">
-        <v>0.94474999999999998</v>
+        <v>0.86519999999999997</v>
       </c>
       <c r="AG4">
-        <v>0.93500000000000005</v>
+        <v>0.57915000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.59570000000000001</v>
+        <v>0.72250000000000003</v>
       </c>
       <c r="AI4">
-        <v>0.77990000000000004</v>
+        <v>0.78054999999999997</v>
       </c>
       <c r="AJ4">
-        <v>0.95199999999999996</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="AK4">
-        <v>0.48509999999999998</v>
+        <v>0.90110000000000001</v>
       </c>
       <c r="AL4">
-        <v>0.69479999999999997</v>
+        <v>0.67505000000000004</v>
       </c>
       <c r="AM4">
-        <v>0.66600000000000004</v>
+        <v>0.93554999999999999</v>
       </c>
       <c r="AN4">
-        <v>0.7087</v>
+        <v>0.76629999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.78739999999999999</v>
+        <v>0.83614999999999995</v>
       </c>
       <c r="AP4">
-        <v>0.62695000000000001</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="AQ4">
-        <v>0.66125</v>
+        <v>0.82925000000000004</v>
       </c>
       <c r="AR4">
-        <v>0.86499999999999999</v>
+        <v>0.68464999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.91364999999999996</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="AT4">
-        <v>0.82194999999999996</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="AU4">
-        <v>0.87609999999999999</v>
+        <v>0.95504999999999995</v>
       </c>
       <c r="AV4">
-        <v>0.94864999999999999</v>
+        <v>0.7883</v>
       </c>
       <c r="AW4">
-        <v>0.7359</v>
+        <v>0.73755000000000004</v>
       </c>
       <c r="AX4">
-        <v>0.66320000000000001</v>
+        <v>0.87504999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.87975000000000003</v>
+        <v>0.82379999999999998</v>
       </c>
       <c r="B5">
-        <v>0.69389999999999996</v>
+        <v>0.72985</v>
       </c>
       <c r="C5">
-        <v>0.80654999999999999</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="D5">
-        <v>0.97350000000000003</v>
+        <v>0.75444999999999995</v>
       </c>
       <c r="E5">
-        <v>0.69969999999999999</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="F5">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.94904999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.66185000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.82015000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.88014999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.91254999999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.73175000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.84865000000000002</v>
+      </c>
+      <c r="R5">
+        <v>0.92254999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="T5">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="V5">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="X5">
+        <v>0.60594999999999999</v>
+      </c>
+      <c r="Y5">
         <v>0.77849999999999997</v>
       </c>
-      <c r="G5">
-        <v>0.58240000000000003</v>
-      </c>
-      <c r="H5">
-        <v>0.58745000000000003</v>
-      </c>
-      <c r="I5">
-        <v>0.6653</v>
-      </c>
-      <c r="J5">
-        <v>0.40805000000000002</v>
-      </c>
-      <c r="K5">
-        <v>0.96104999999999996</v>
-      </c>
-      <c r="L5">
-        <v>0.79415000000000002</v>
-      </c>
-      <c r="M5">
-        <v>0.91105000000000003</v>
-      </c>
-      <c r="N5">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="O5">
-        <v>0.86470000000000002</v>
-      </c>
-      <c r="P5">
-        <v>0.83020000000000005</v>
-      </c>
-      <c r="Q5">
-        <v>0.73114999999999997</v>
-      </c>
-      <c r="R5">
+      <c r="Z5">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="AA5">
+        <v>0.86755000000000004</v>
+      </c>
+      <c r="AB5">
+        <v>0.77534999999999998</v>
+      </c>
+      <c r="AC5">
+        <v>0.94815000000000005</v>
+      </c>
+      <c r="AD5">
+        <v>0.90295000000000003</v>
+      </c>
+      <c r="AE5">
+        <v>0.51985000000000003</v>
+      </c>
+      <c r="AF5">
         <v>0.67554999999999998</v>
       </c>
-      <c r="S5">
-        <v>0.87455000000000005</v>
-      </c>
-      <c r="T5">
-        <v>0.83520000000000005</v>
-      </c>
-      <c r="U5">
-        <v>0.87675000000000003</v>
-      </c>
-      <c r="V5">
-        <v>0.72430000000000005</v>
-      </c>
-      <c r="W5">
-        <v>0.61229999999999996</v>
-      </c>
-      <c r="X5">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="Y5">
-        <v>0.89229999999999998</v>
-      </c>
-      <c r="Z5">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>0.89034999999999997</v>
-      </c>
-      <c r="AB5">
-        <v>0.66164999999999996</v>
-      </c>
-      <c r="AC5">
-        <v>0.82210000000000005</v>
-      </c>
-      <c r="AD5">
-        <v>0.81520000000000004</v>
-      </c>
-      <c r="AE5">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="AF5">
-        <v>0.87770000000000004</v>
-      </c>
       <c r="AG5">
-        <v>0.93010000000000004</v>
+        <v>0.59424999999999994</v>
       </c>
       <c r="AH5">
-        <v>0.33329999999999999</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AI5">
-        <v>0.62665000000000004</v>
+        <v>0.71404999999999996</v>
       </c>
       <c r="AJ5">
-        <v>0.88300000000000001</v>
+        <v>0.97224999999999995</v>
       </c>
       <c r="AK5">
-        <v>0.66379999999999995</v>
+        <v>0.78344999999999998</v>
       </c>
       <c r="AL5">
-        <v>0.57874999999999999</v>
+        <v>0.44735000000000003</v>
       </c>
       <c r="AM5">
-        <v>0.50739999999999996</v>
+        <v>0.84235000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.6351</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.68584999999999996</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="AP5">
-        <v>0.82635000000000003</v>
+        <v>0.76229999999999998</v>
       </c>
       <c r="AQ5">
-        <v>0.52100000000000002</v>
+        <v>0.86419999999999997</v>
       </c>
       <c r="AR5">
-        <v>0.94335000000000002</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="AS5">
-        <v>0.83350000000000002</v>
+        <v>0.71545000000000003</v>
       </c>
       <c r="AT5">
-        <v>0.85099999999999998</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="AU5">
-        <v>0.72670000000000001</v>
+        <v>0.85909999999999997</v>
       </c>
       <c r="AV5">
-        <v>0.95465</v>
+        <v>0.81594999999999995</v>
       </c>
       <c r="AW5">
-        <v>0.76275000000000004</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="AX5">
-        <v>0.75095000000000001</v>
+        <v>0.83945000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.66669999999999996</v>
+        <v>0.69989999999999997</v>
       </c>
       <c r="B6">
-        <v>0.59894999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="C6">
-        <v>0.75919999999999999</v>
+        <v>0.91039999999999999</v>
       </c>
       <c r="D6">
-        <v>0.90559999999999996</v>
+        <v>0.75905</v>
       </c>
       <c r="E6">
-        <v>0.75344999999999995</v>
+        <v>0.7843</v>
       </c>
       <c r="F6">
-        <v>0.83745000000000003</v>
+        <v>0.85719999999999996</v>
       </c>
       <c r="G6">
-        <v>0.45084999999999997</v>
+        <v>0.77695000000000003</v>
       </c>
       <c r="H6">
-        <v>0.54944999999999999</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="I6">
-        <v>0.80105000000000004</v>
+        <v>0.70845000000000002</v>
       </c>
       <c r="J6">
-        <v>0.49669999999999997</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="K6">
-        <v>0.97855000000000003</v>
+        <v>0.69745000000000001</v>
       </c>
       <c r="L6">
-        <v>0.72509999999999997</v>
+        <v>0.78305000000000002</v>
       </c>
       <c r="M6">
-        <v>0.95845000000000002</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="N6">
-        <v>0.97524999999999995</v>
+        <v>0.87490000000000001</v>
       </c>
       <c r="O6">
-        <v>0.76459999999999995</v>
+        <v>0.75165000000000004</v>
       </c>
       <c r="P6">
-        <v>0.74245000000000005</v>
+        <v>0.63995000000000002</v>
       </c>
       <c r="Q6">
-        <v>0.73850000000000005</v>
+        <v>0.87414999999999998</v>
       </c>
       <c r="R6">
-        <v>0.71689999999999998</v>
+        <v>0.9446</v>
       </c>
       <c r="S6">
-        <v>0.95665</v>
+        <v>0.79884999999999995</v>
       </c>
       <c r="T6">
-        <v>0.74870000000000003</v>
+        <v>0.68574999999999997</v>
       </c>
       <c r="U6">
-        <v>0.84904999999999997</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="V6">
-        <v>0.504</v>
+        <v>0.95215000000000005</v>
       </c>
       <c r="W6">
-        <v>0.43</v>
+        <v>0.86665000000000003</v>
       </c>
       <c r="X6">
-        <v>0.9304</v>
+        <v>0.7238</v>
       </c>
       <c r="Y6">
-        <v>0.86485000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="Z6">
-        <v>0.91169999999999995</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="AA6">
-        <v>0.81399999999999995</v>
+        <v>0.83674999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.53069999999999995</v>
+        <v>0.85719999999999996</v>
       </c>
       <c r="AC6">
-        <v>0.69255</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="AD6">
-        <v>0.44059999999999999</v>
+        <v>0.87634999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.84850000000000003</v>
+        <v>0.60160000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.88670000000000004</v>
+        <v>0.78649999999999998</v>
       </c>
       <c r="AG6">
-        <v>0.97940000000000005</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="AH6">
-        <v>0.31169999999999998</v>
+        <v>0.7722</v>
       </c>
       <c r="AI6">
-        <v>0.76390000000000002</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="AJ6">
-        <v>0.73119999999999996</v>
+        <v>0.85029999999999994</v>
       </c>
       <c r="AK6">
-        <v>0.41034999999999999</v>
+        <v>0.75875000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.48985000000000001</v>
+        <v>0.64254999999999995</v>
       </c>
       <c r="AM6">
-        <v>0.28965000000000002</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="AN6">
-        <v>0.56705000000000005</v>
+        <v>0.7208</v>
       </c>
       <c r="AO6">
-        <v>0.61495</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="AP6">
-        <v>0.80684999999999996</v>
+        <v>0.82515000000000005</v>
       </c>
       <c r="AQ6">
-        <v>0.47604999999999997</v>
+        <v>0.81855</v>
       </c>
       <c r="AR6">
-        <v>0.94015000000000004</v>
+        <v>0.81410000000000005</v>
       </c>
       <c r="AS6">
-        <v>0.75285000000000002</v>
+        <v>0.72260000000000002</v>
       </c>
       <c r="AT6">
-        <v>0.80645</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="AU6">
-        <v>0.63439999999999996</v>
+        <v>0.88065000000000004</v>
       </c>
       <c r="AV6">
-        <v>0.92625000000000002</v>
+        <v>0.85345000000000004</v>
       </c>
       <c r="AW6">
-        <v>0.71014999999999995</v>
+        <v>0.83109999999999995</v>
       </c>
       <c r="AX6">
-        <v>0.75344999999999995</v>
+        <v>0.86324999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.27124999999999999</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="B7">
-        <v>0.70104999999999995</v>
+        <v>0.54235</v>
       </c>
       <c r="C7">
-        <v>0.89305000000000001</v>
+        <v>0.95145000000000002</v>
       </c>
       <c r="D7">
-        <v>0.84640000000000004</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="E7">
-        <v>0.59135000000000004</v>
+        <v>0.62285000000000001</v>
       </c>
       <c r="F7">
-        <v>0.79335</v>
+        <v>0.82445000000000002</v>
       </c>
       <c r="G7">
-        <v>0.5333</v>
+        <v>0.50544999999999995</v>
       </c>
       <c r="H7">
-        <v>0.44295000000000001</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="I7">
-        <v>0.7016</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="J7">
-        <v>0.55169999999999997</v>
+        <v>0.72555000000000003</v>
       </c>
       <c r="K7">
-        <v>0.98475000000000001</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="L7">
-        <v>0.59609999999999996</v>
+        <v>0.71830000000000005</v>
       </c>
       <c r="M7">
-        <v>0.94484999999999997</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="N7">
-        <v>0.9788</v>
+        <v>0.90434999999999999</v>
       </c>
       <c r="O7">
-        <v>0.67200000000000004</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="P7">
-        <v>0.8367</v>
+        <v>0.62555000000000005</v>
       </c>
       <c r="Q7">
-        <v>0.89834999999999998</v>
+        <v>0.86814999999999998</v>
       </c>
       <c r="R7">
-        <v>0.71079999999999999</v>
+        <v>0.87565000000000004</v>
       </c>
       <c r="S7">
-        <v>0.90705000000000002</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="T7">
-        <v>0.56359999999999999</v>
+        <v>0.75680000000000003</v>
       </c>
       <c r="U7">
-        <v>0.67479999999999996</v>
+        <v>0.9133</v>
       </c>
       <c r="V7">
-        <v>0.51214999999999999</v>
+        <v>0.81845000000000001</v>
       </c>
       <c r="W7">
-        <v>0.49914999999999998</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="X7">
-        <v>0.87570000000000003</v>
+        <v>0.60355000000000003</v>
       </c>
       <c r="Y7">
-        <v>0.60429999999999995</v>
+        <v>0.70265</v>
       </c>
       <c r="Z7">
-        <v>0.73665000000000003</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.74070000000000003</v>
+        <v>0.85055000000000003</v>
       </c>
       <c r="AB7">
-        <v>0.54679999999999995</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.70630000000000004</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="AD7">
-        <v>0.31885000000000002</v>
+        <v>0.84430000000000005</v>
       </c>
       <c r="AE7">
-        <v>0.60314999999999996</v>
+        <v>0.75165000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.83299999999999996</v>
+        <v>0.66654999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.94540000000000002</v>
+        <v>0.40189999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.14265</v>
+        <v>0.51805000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.60399999999999998</v>
+        <v>0.7298</v>
       </c>
       <c r="AJ7">
-        <v>0.89654999999999996</v>
+        <v>0.87175000000000002</v>
       </c>
       <c r="AK7">
-        <v>0.28175</v>
+        <v>0.86539999999999995</v>
       </c>
       <c r="AL7">
-        <v>0.5978</v>
+        <v>0.5222</v>
       </c>
       <c r="AM7">
-        <v>0.2974</v>
+        <v>0.75175000000000003</v>
       </c>
       <c r="AN7">
-        <v>0.52610000000000001</v>
+        <v>0.8125</v>
       </c>
       <c r="AO7">
-        <v>0.65400000000000003</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="AP7">
-        <v>0.7571</v>
+        <v>0.80115000000000003</v>
       </c>
       <c r="AQ7">
-        <v>0.50870000000000004</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="AR7">
-        <v>0.96555000000000002</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.63075000000000003</v>
+        <v>0.77564999999999995</v>
       </c>
       <c r="AT7">
-        <v>0.98080000000000001</v>
+        <v>0.98655000000000004</v>
       </c>
       <c r="AU7">
-        <v>0.51295000000000002</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="AV7">
-        <v>0.95120000000000005</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="AW7">
-        <v>0.68694999999999995</v>
+        <v>0.81020000000000003</v>
       </c>
       <c r="AX7">
-        <v>0.84160000000000001</v>
+        <v>0.69010000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.16650000000000001</v>
+        <v>0.62234999999999996</v>
       </c>
       <c r="B8">
-        <v>0.59245000000000003</v>
+        <v>0.41294999999999998</v>
       </c>
       <c r="C8">
-        <v>0.88039999999999996</v>
+        <v>0.90774999999999995</v>
       </c>
       <c r="D8">
-        <v>0.76724999999999999</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="E8">
-        <v>0.41604999999999998</v>
+        <v>0.73234999999999995</v>
       </c>
       <c r="F8">
-        <v>0.75460000000000005</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="G8">
-        <v>0.38279999999999997</v>
+        <v>0.53225</v>
       </c>
       <c r="H8">
-        <v>0.48125000000000001</v>
+        <v>0.96775</v>
       </c>
       <c r="I8">
-        <v>0.78029999999999999</v>
+        <v>0.87480000000000002</v>
       </c>
       <c r="J8">
-        <v>0.57440000000000002</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="K8">
-        <v>0.94715000000000005</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="L8">
-        <v>0.51354999999999995</v>
+        <v>0.86375000000000002</v>
       </c>
       <c r="M8">
-        <v>0.94504999999999995</v>
+        <v>0.80310000000000004</v>
       </c>
       <c r="N8">
-        <v>0.96994999999999998</v>
+        <v>0.69984999999999997</v>
       </c>
       <c r="O8">
-        <v>0.82330000000000003</v>
+        <v>0.57235000000000003</v>
       </c>
       <c r="P8">
-        <v>0.71260000000000001</v>
+        <v>0.69830000000000003</v>
       </c>
       <c r="Q8">
-        <v>0.88929999999999998</v>
+        <v>0.77815000000000001</v>
       </c>
       <c r="R8">
-        <v>0.67125000000000001</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="S8">
-        <v>0.83</v>
+        <v>0.75424999999999998</v>
       </c>
       <c r="T8">
-        <v>0.91735</v>
+        <v>0.69355</v>
       </c>
       <c r="U8">
-        <v>0.67169999999999996</v>
+        <v>0.77380000000000004</v>
       </c>
       <c r="V8">
-        <v>0.60819999999999996</v>
+        <v>0.8871</v>
       </c>
       <c r="W8">
-        <v>0.40584999999999999</v>
+        <v>0.79915000000000003</v>
       </c>
       <c r="X8">
-        <v>0.91649999999999998</v>
+        <v>0.68464999999999998</v>
       </c>
       <c r="Y8">
-        <v>0.67054999999999998</v>
+        <v>0.71655000000000002</v>
       </c>
       <c r="Z8">
-        <v>0.51290000000000002</v>
+        <v>0.65044999999999997</v>
       </c>
       <c r="AA8">
-        <v>0.61819999999999997</v>
+        <v>0.51585000000000003</v>
       </c>
       <c r="AB8">
-        <v>0.443</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.88480000000000003</v>
+        <v>0.84804999999999997</v>
       </c>
       <c r="AD8">
-        <v>0.49819999999999998</v>
+        <v>0.80074999999999996</v>
       </c>
       <c r="AE8">
-        <v>0.4849</v>
+        <v>0.66264999999999996</v>
       </c>
       <c r="AF8">
-        <v>0.80710000000000004</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="AG8">
-        <v>0.99575000000000002</v>
+        <v>0.42465000000000003</v>
       </c>
       <c r="AH8">
-        <v>0.14965000000000001</v>
+        <v>0.61014999999999997</v>
       </c>
       <c r="AI8">
-        <v>0.51790000000000003</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.72384999999999999</v>
+        <v>0.80815000000000003</v>
       </c>
       <c r="AK8">
-        <v>0.57489999999999997</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="AL8">
-        <v>0.77649999999999997</v>
+        <v>0.44964999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.29675000000000001</v>
+        <v>0.48244999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.4224</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="AO8">
-        <v>0.72260000000000002</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="AP8">
-        <v>0.75065000000000004</v>
+        <v>0.56625000000000003</v>
       </c>
       <c r="AQ8">
-        <v>0.4834</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="AR8">
-        <v>0.95509999999999995</v>
+        <v>0.29925000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.71114999999999995</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="AT8">
-        <v>0.91635</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.29339999999999999</v>
+        <v>0.54425000000000001</v>
       </c>
       <c r="AV8">
-        <v>0.92030000000000001</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="AW8">
-        <v>0.63465000000000005</v>
+        <v>0.6825</v>
       </c>
       <c r="AX8">
-        <v>0.76270000000000004</v>
+        <v>0.42709999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.14565</v>
+        <v>0.56740000000000002</v>
       </c>
       <c r="B9">
-        <v>0.44819999999999999</v>
+        <v>0.23955000000000001</v>
       </c>
       <c r="C9">
-        <v>0.46174999999999999</v>
+        <v>0.88205</v>
       </c>
       <c r="D9">
-        <v>0.61109999999999998</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="E9">
-        <v>0.3836</v>
+        <v>0.80764999999999998</v>
       </c>
       <c r="F9">
-        <v>0.53725000000000001</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="G9">
-        <v>0.38815</v>
+        <v>0.52610000000000001</v>
       </c>
       <c r="H9">
-        <v>0.42465000000000003</v>
+        <v>0.87485000000000002</v>
       </c>
       <c r="I9">
-        <v>0.66810000000000003</v>
+        <v>0.77075000000000005</v>
       </c>
       <c r="J9">
-        <v>0.62709999999999999</v>
+        <v>0.7198</v>
       </c>
       <c r="K9">
-        <v>0.88585000000000003</v>
+        <v>0.64380000000000004</v>
       </c>
       <c r="L9">
-        <v>0.50880000000000003</v>
+        <v>0.67415000000000003</v>
       </c>
       <c r="M9">
-        <v>0.82815000000000005</v>
+        <v>0.92364999999999997</v>
       </c>
       <c r="N9">
-        <v>0.98350000000000004</v>
+        <v>0.58065</v>
       </c>
       <c r="O9">
-        <v>0.72719999999999996</v>
+        <v>0.56169999999999998</v>
       </c>
       <c r="P9">
-        <v>0.80554999999999999</v>
+        <v>0.68845000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.92674999999999996</v>
+        <v>0.82094999999999996</v>
       </c>
       <c r="R9">
-        <v>0.51634999999999998</v>
+        <v>0.96004999999999996</v>
       </c>
       <c r="S9">
-        <v>0.7056</v>
+        <v>0.70465</v>
       </c>
       <c r="T9">
-        <v>0.88170000000000004</v>
+        <v>0.63585000000000003</v>
       </c>
       <c r="U9">
-        <v>0.81335000000000002</v>
+        <v>0.85324999999999995</v>
       </c>
       <c r="V9">
-        <v>0.48025000000000001</v>
+        <v>0.86775000000000002</v>
       </c>
       <c r="W9">
-        <v>0.50724999999999998</v>
+        <v>0.76895000000000002</v>
       </c>
       <c r="X9">
-        <v>0.87395</v>
+        <v>0.65439999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.41920000000000002</v>
+        <v>0.7268</v>
       </c>
       <c r="Z9">
-        <v>0.4254</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.53885000000000005</v>
+        <v>0.3301</v>
       </c>
       <c r="AB9">
-        <v>0.49154999999999999</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="AC9">
-        <v>0.87529999999999997</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="AD9">
-        <v>0.55595000000000006</v>
+        <v>0.76565000000000005</v>
       </c>
       <c r="AE9">
-        <v>0.40075</v>
+        <v>0.85694999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.65615000000000001</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.99524999999999997</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="AH9">
-        <v>8.6499999999999994E-2</v>
+        <v>0.54369999999999996</v>
       </c>
       <c r="AI9">
-        <v>0.59899999999999998</v>
+        <v>0.77995000000000003</v>
       </c>
       <c r="AJ9">
-        <v>0.61439999999999995</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="AK9">
-        <v>0.73934999999999995</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.83779999999999999</v>
+        <v>0.53495000000000004</v>
       </c>
       <c r="AM9">
-        <v>0.21485000000000001</v>
+        <v>0.62755000000000005</v>
       </c>
       <c r="AN9">
-        <v>0.38705000000000001</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.71725000000000005</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.68684999999999996</v>
+        <v>0.67905000000000004</v>
       </c>
       <c r="AQ9">
-        <v>0.47039999999999998</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.92510000000000003</v>
+        <v>0.30819999999999997</v>
       </c>
       <c r="AS9">
-        <v>0.49104999999999999</v>
+        <v>0.71835000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.89685000000000004</v>
+        <v>0.97114999999999996</v>
       </c>
       <c r="AU9">
-        <v>0.4965</v>
+        <v>0.57169999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.89970000000000006</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.59499999999999997</v>
+        <v>0.51905000000000001</v>
       </c>
       <c r="AX9">
-        <v>0.71055000000000001</v>
+        <v>0.22414999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.19089999999999999</v>
+        <v>0.3266</v>
       </c>
       <c r="B10">
-        <v>0.47735</v>
+        <v>0.35844999999999999</v>
       </c>
       <c r="C10">
-        <v>0.22405</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="D10">
-        <v>0.69350000000000001</v>
+        <v>0.61614999999999998</v>
       </c>
       <c r="E10">
-        <v>0.38669999999999999</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="F10">
-        <v>0.56610000000000005</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G10">
-        <v>0.27960000000000002</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="H10">
-        <v>0.44855</v>
+        <v>0.58525000000000005</v>
       </c>
       <c r="I10">
-        <v>0.64400000000000002</v>
+        <v>0.6905</v>
       </c>
       <c r="J10">
-        <v>0.57999999999999996</v>
+        <v>0.58465</v>
       </c>
       <c r="K10">
-        <v>0.78480000000000005</v>
+        <v>0.53920000000000001</v>
       </c>
       <c r="L10">
-        <v>0.47139999999999999</v>
+        <v>0.56625000000000003</v>
       </c>
       <c r="M10">
-        <v>0.63995000000000002</v>
+        <v>0.78075000000000006</v>
       </c>
       <c r="N10">
-        <v>0.95974999999999999</v>
+        <v>0.41985</v>
       </c>
       <c r="O10">
-        <v>0.79959999999999998</v>
+        <v>0.62560000000000004</v>
       </c>
       <c r="P10">
-        <v>0.63714999999999999</v>
+        <v>0.34994999999999998</v>
       </c>
       <c r="Q10">
-        <v>0.88039999999999996</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="R10">
-        <v>0.52880000000000005</v>
+        <v>0.90590000000000004</v>
       </c>
       <c r="S10">
-        <v>0.82535000000000003</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="T10">
-        <v>0.95304999999999995</v>
+        <v>0.46355000000000002</v>
       </c>
       <c r="U10">
-        <v>0.75009999999999999</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="V10">
-        <v>0.39824999999999999</v>
+        <v>0.93115000000000003</v>
       </c>
       <c r="W10">
-        <v>0.56564999999999999</v>
+        <v>0.72845000000000004</v>
       </c>
       <c r="X10">
-        <v>0.88154999999999994</v>
+        <v>0.68064999999999998</v>
       </c>
       <c r="Y10">
-        <v>0.28149999999999997</v>
+        <v>0.58514999999999995</v>
       </c>
       <c r="Z10">
-        <v>0.41325000000000001</v>
+        <v>0.71084999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.59440000000000004</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="AB10">
-        <v>0.54144999999999999</v>
+        <v>0.91034999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.81405000000000005</v>
+        <v>0.80864999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.57074999999999998</v>
+        <v>0.65915000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.42349999999999999</v>
+        <v>0.83894999999999997</v>
       </c>
       <c r="AF10">
-        <v>0.77364999999999995</v>
+        <v>0.48465000000000003</v>
       </c>
       <c r="AG10">
-        <v>0.99509999999999998</v>
+        <v>0.47144999999999998</v>
       </c>
       <c r="AH10">
-        <v>7.1900000000000006E-2</v>
+        <v>0.28944999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.5907</v>
+        <v>0.85760000000000003</v>
       </c>
       <c r="AJ10">
-        <v>0.76544999999999996</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="AK10">
-        <v>0.73709999999999998</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="AL10">
-        <v>0.77</v>
+        <v>0.45605000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.49654999999999999</v>
+        <v>0.68315000000000003</v>
       </c>
       <c r="AN10">
-        <v>0.49070000000000003</v>
+        <v>0.74760000000000004</v>
       </c>
       <c r="AO10">
-        <v>0.69469999999999998</v>
+        <v>0.44564999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.64929999999999999</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="AQ10">
-        <v>0.39400000000000002</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="AR10">
-        <v>0.88270000000000004</v>
+        <v>0.17115</v>
       </c>
       <c r="AS10">
-        <v>0.53610000000000002</v>
+        <v>0.66164999999999996</v>
       </c>
       <c r="AT10">
-        <v>0.89149999999999996</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="AU10">
-        <v>0.4859</v>
+        <v>0.47134999999999999</v>
       </c>
       <c r="AV10">
-        <v>0.85560000000000003</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="AW10">
-        <v>0.48444999999999999</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="AX10">
-        <v>0.65680000000000005</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.3950000000000006E-2</v>
+        <v>0.46494999999999997</v>
       </c>
       <c r="B11">
-        <v>0.2681</v>
+        <v>0.72084999999999999</v>
       </c>
       <c r="C11">
-        <v>0.18625</v>
+        <v>0.76485000000000003</v>
       </c>
       <c r="D11">
-        <v>0.71419999999999995</v>
+        <v>0.54444999999999999</v>
       </c>
       <c r="E11">
-        <v>0.44969999999999999</v>
+        <v>0.67984999999999995</v>
       </c>
       <c r="F11">
-        <v>0.36235000000000001</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="G11">
-        <v>0.26355000000000001</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="H11">
-        <v>0.40944999999999998</v>
+        <v>0.73919999999999997</v>
       </c>
       <c r="I11">
-        <v>0.56984999999999997</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="J11">
-        <v>0.47965000000000002</v>
+        <v>0.6764</v>
       </c>
       <c r="K11">
-        <v>0.71419999999999995</v>
+        <v>0.5575</v>
       </c>
       <c r="L11">
-        <v>0.56315000000000004</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="M11">
-        <v>0.52969999999999995</v>
+        <v>0.76844999999999997</v>
       </c>
       <c r="N11">
-        <v>0.94404999999999994</v>
+        <v>0.60309999999999997</v>
       </c>
       <c r="O11">
-        <v>0.77175000000000005</v>
+        <v>0.59584999999999999</v>
       </c>
       <c r="P11">
-        <v>0.83160000000000001</v>
+        <v>0.37535000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.86580000000000001</v>
+        <v>0.89795000000000003</v>
       </c>
       <c r="R11">
-        <v>0.57255</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="S11">
-        <v>0.70579999999999998</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="T11">
-        <v>0.94694999999999996</v>
+        <v>0.50944999999999996</v>
       </c>
       <c r="U11">
-        <v>0.71365000000000001</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="V11">
-        <v>0.30640000000000001</v>
+        <v>0.91635</v>
       </c>
       <c r="W11">
-        <v>0.52180000000000004</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="X11">
-        <v>0.83914999999999995</v>
+        <v>0.52564999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.69094999999999995</v>
+        <v>0.42514999999999997</v>
       </c>
       <c r="Z11">
-        <v>0.66725000000000001</v>
+        <v>0.74185000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.73685</v>
+        <v>0.3034</v>
       </c>
       <c r="AB11">
-        <v>0.49604999999999999</v>
+        <v>0.76685000000000003</v>
       </c>
       <c r="AC11">
-        <v>0.68174999999999997</v>
+        <v>0.72894999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.50565000000000004</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="AE11">
-        <v>0.45384999999999998</v>
+        <v>0.73855000000000004</v>
       </c>
       <c r="AF11">
-        <v>0.7399</v>
+        <v>0.49890000000000001</v>
       </c>
       <c r="AG11">
-        <v>0.9929</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="AH11">
-        <v>2.5649999999999999E-2</v>
+        <v>0.66805000000000003</v>
       </c>
       <c r="AI11">
-        <v>0.57779999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="AJ11">
-        <v>0.79125000000000001</v>
+        <v>0.28260000000000002</v>
       </c>
       <c r="AK11">
-        <v>0.50055000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.63014999999999999</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="AM11">
-        <v>0.43725000000000003</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="AN11">
-        <v>0.41199999999999998</v>
+        <v>0.65864999999999996</v>
       </c>
       <c r="AO11">
-        <v>0.61504999999999999</v>
+        <v>0.51329999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.62705</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="AQ11">
-        <v>0.29749999999999999</v>
+        <v>0.87165000000000004</v>
       </c>
       <c r="AR11">
-        <v>0.85260000000000002</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AS11">
-        <v>0.45445000000000002</v>
+        <v>0.61285000000000001</v>
       </c>
       <c r="AT11">
-        <v>0.92320000000000002</v>
+        <v>0.97860000000000003</v>
       </c>
       <c r="AU11">
-        <v>0.57999999999999996</v>
+        <v>0.41055000000000003</v>
       </c>
       <c r="AV11">
-        <v>0.82325000000000004</v>
+        <v>0.71779999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.57350000000000001</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="AX11">
-        <v>0.56735000000000002</v>
+        <v>0.1744</v>
       </c>
     </row>
   </sheetData>
